--- a/策划/表格配置/2001.xlsx
+++ b/策划/表格配置/2001.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sdftt" sheetId="1" r:id="rId1"/>
+    <sheet name="表格配置说明" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,83 +25,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA2</t>
+  </si>
+  <si>
+    <t>BBB2</t>
+  </si>
+  <si>
+    <t>CCC2</t>
+  </si>
+  <si>
+    <t>DDD2</t>
+  </si>
+  <si>
+    <t>EEE2</t>
+  </si>
+  <si>
+    <t>FFF2</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFF1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAA2</t>
-  </si>
-  <si>
-    <t>AAA3</t>
-  </si>
-  <si>
-    <t>BBB2</t>
-  </si>
-  <si>
-    <t>BBB3</t>
-  </si>
-  <si>
-    <t>CCC2</t>
-  </si>
-  <si>
-    <t>CCC3</t>
-  </si>
-  <si>
-    <t>DDD2</t>
-  </si>
-  <si>
-    <t>DDD3</t>
-  </si>
-  <si>
-    <t>EEE2</t>
-  </si>
-  <si>
-    <t>EEE3</t>
-  </si>
-  <si>
-    <t>FFF2</t>
-  </si>
-  <si>
-    <t>FFF3</t>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,8 +122,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,112 +423,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -565,21 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="F41:G41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
